--- a/TestDescriptionFieldValueAnalysis.xlsx
+++ b/TestDescriptionFieldValueAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\EarthCube\infomodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28EBAD-1F75-4CDD-93C7-EDE061F1285D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA01D14-5411-43E4-8E0F-495154FC32DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="735" windowWidth="21555" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{C81E8E87-C803-4966-86CD-E799EC3ABB56}"/>
+    <workbookView xWindow="3015" yWindow="2250" windowWidth="20325" windowHeight="10920" firstSheet="3" activeTab="6" xr2:uid="{C81E8E87-C803-4966-86CD-E799EC3ABB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Union summary" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="time to live" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +41,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stephen Richard</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FCAF2E73-9137-440B-A39D-3CA1098FB161}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stephen Richard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+categories from https://docs.google.com/spreadsheets/d/1jFGjp2_QRT1z2YR4DJZwA-OTaj41zpdkUiX_JxBoISU/edit#gid=1171223126
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1819">
   <si>
     <t>OSGeo</t>
   </si>
@@ -4749,12 +4785,6 @@
     <t xml:space="preserve">Visualize Probabilistic Power Spectral Densities </t>
   </si>
   <si>
-    <t>CDM file input | CDM file output</t>
-  </si>
-  <si>
-    <t>Data discovery | Data Access</t>
-  </si>
-  <si>
     <t>Visualization</t>
   </si>
   <si>
@@ -5058,9 +5088,6 @@
     <t>ASCII (data column, time column)</t>
   </si>
   <si>
-    <t>GEOCSV (data column)</t>
-  </si>
-  <si>
     <t>GEOCSV (data column, time column)</t>
   </si>
   <si>
@@ -5479,6 +5506,174 @@
   </si>
   <si>
     <t>Technology savvy scientists</t>
+  </si>
+  <si>
+    <t>Mapping to generic audiences</t>
+  </si>
+  <si>
+    <t>data producers</t>
+  </si>
+  <si>
+    <t>data users</t>
+  </si>
+  <si>
+    <t>data facilities &amp; repositories</t>
+  </si>
+  <si>
+    <t>technologists</t>
+  </si>
+  <si>
+    <t>data intermediary</t>
+  </si>
+  <si>
+    <t>scientists</t>
+  </si>
+  <si>
+    <t>infomaticists</t>
+  </si>
+  <si>
+    <t>members of the public</t>
+  </si>
+  <si>
+    <t>Generalized vocabualary</t>
+  </si>
+  <si>
+    <t>science domain</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>Earth Science | Environmental Science</t>
+  </si>
+  <si>
+    <t>geobiology</t>
+  </si>
+  <si>
+    <t>geochemistry</t>
+  </si>
+  <si>
+    <t>geology</t>
+  </si>
+  <si>
+    <t>geophysics</t>
+  </si>
+  <si>
+    <t>Earth Science</t>
+  </si>
+  <si>
+    <t>Geographic information systems</t>
+  </si>
+  <si>
+    <t>domain agnostic</t>
+  </si>
+  <si>
+    <t>magnetotellurics</t>
+  </si>
+  <si>
+    <t>Marine geoscience</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+  </si>
+  <si>
+    <t>Heliophysics</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Research Planning</t>
+  </si>
+  <si>
+    <t>User Interaction</t>
+  </si>
+  <si>
+    <t>Data Acquisition</t>
+  </si>
+  <si>
+    <t>Data Discovery &amp; Access</t>
+  </si>
+  <si>
+    <t>Data Exploration</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Data Processing / Modeling</t>
+  </si>
+  <si>
+    <t>Workflow Management</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Data Sustainability</t>
+  </si>
+  <si>
+    <t>Programmer Assistance</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>SoftwareFunctionCategory TopLevel</t>
+  </si>
+  <si>
+    <t>Data Acquisition | Data Processing | Visualization</t>
+  </si>
+  <si>
+    <t>Data exploration | Visualization</t>
+  </si>
+  <si>
+    <t>Data Acquisition | Data Preparation | Workflow Management</t>
+  </si>
+  <si>
+    <t>Data analysis | visualization</t>
+  </si>
+  <si>
+    <t>Read data into data frame</t>
+  </si>
+  <si>
+    <t>Research Planning | Data Acquisition | Data Discovery | Data Access | Data Exploration | Data Analysis</t>
+  </si>
+  <si>
+    <t>plotting orientation data on maps | plotting orientation data on stereonets</t>
+  </si>
+  <si>
+    <t>units of measure conversion | standard units defintions</t>
+  </si>
+  <si>
+    <t>manage OWL ontologies | manage SKOS(/XL) thesauri | manage Ontolex-lemon lexicons | manage generic RDF datasets</t>
+  </si>
+  <si>
+    <t>data access</t>
+  </si>
+  <si>
+    <t>Function(original)</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Acquisition | Visualization | Data Processing / Modeling | Data Preparation | Data Analysis </t>
+  </si>
+  <si>
+    <t>Data analysis | Visualization</t>
+  </si>
+  <si>
+    <t>Data Preparation | Visualization | Data Analysis | Data Exploration</t>
+  </si>
+  <si>
+    <t>Unique values</t>
+  </si>
+  <si>
+    <t>GETASSE30 Tile format</t>
+  </si>
+  <si>
+    <t>format for DEM tiles in GETASSE30  dataset</t>
   </si>
 </sst>
 </file>
@@ -5488,7 +5683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5527,6 +5722,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5542,9 +5756,44 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -5555,7 +5804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5606,6 +5855,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5955,9 +6216,9 @@
   </sheetPr>
   <dimension ref="A1:BN201"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1:AU1048576"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10923,7 +11184,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11163,311 +11424,637 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35767785-9FAC-4F36-A2CB-8D01D1802372}">
-  <dimension ref="A1:A196"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1738</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1746</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1752</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1751</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1733</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1734</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1749</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1757</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1735</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1742</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1739</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1743</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1753</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1754</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1736</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C34" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1737</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C35" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C36" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1744</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1750</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1760</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1762</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C47" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1740</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1759</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1761</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -11870,6 +12457,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A196">
     <sortCondition ref="A2"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{47EDDEC3-796A-45E5-B321-8BF3C1EBFAD0}">
+      <formula1>$D$2:$D$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11878,7 +12470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF8B284-E167-41FB-9B27-3C0A7ECFF073}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -11900,45 +12492,45 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11946,7 +12538,7 @@
         <v>608</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11954,15 +12546,15 @@
         <v>482</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -11970,31 +12562,31 @@
         <v>994</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -12002,7 +12594,7 @@
         <v>845</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -12010,7 +12602,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -12018,23 +12610,23 @@
         <v>128</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12042,18 +12634,18 @@
         <v>915</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>915</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -12061,15 +12653,15 @@
         <v>120</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -12077,23 +12669,23 @@
         <v>137</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12101,7 +12693,7 @@
         <v>954</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12109,7 +12701,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12117,63 +12709,63 @@
         <v>529</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -12181,10 +12773,10 @@
         <v>679</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -12192,58 +12784,58 @@
         <v>117</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -12251,7 +12843,7 @@
         <v>462</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -12259,7 +12851,7 @@
         <v>705</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -12267,15 +12859,15 @@
         <v>510</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -12774,7 +13366,7 @@
         <v>1093</v>
       </c>
       <c r="B3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12790,7 +13382,7 @@
         <v>1000</v>
       </c>
       <c r="B5" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12798,7 +13390,7 @@
         <v>958</v>
       </c>
       <c r="B6" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12806,7 +13398,7 @@
         <v>920</v>
       </c>
       <c r="B7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12814,7 +13406,7 @@
         <v>884</v>
       </c>
       <c r="B8" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12825,7 +13417,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>819</v>
       </c>
@@ -12833,7 +13425,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>788</v>
       </c>
@@ -12843,7 +13435,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12851,23 +13443,23 @@
         <v>1147</v>
       </c>
       <c r="B17" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B18" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B19" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12875,7 +13467,7 @@
         <v>849</v>
       </c>
       <c r="B20" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12883,7 +13475,7 @@
         <v>488</v>
       </c>
       <c r="B21" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12927,7 +13519,7 @@
         <v>959</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -12956,7 +13548,7 @@
         <v>513</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -12964,7 +13556,7 @@
         <v>789</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -13000,7 +13592,7 @@
         <v>759</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -13008,7 +13600,7 @@
         <v>682</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -13037,7 +13629,7 @@
         <v>885</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -13045,7 +13637,7 @@
         <v>590</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -13053,7 +13645,7 @@
         <v>734</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -13069,7 +13661,7 @@
         <v>709</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -13090,7 +13682,7 @@
         <v>519</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
   </sheetData>
@@ -13106,823 +13698,4791 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CDCA17-0A18-4A4A-BB26-35B8BBA61A10}">
-  <dimension ref="A1:B206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CDCA17-0A18-4A4A-BB26-35B8BBA61A10}">
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="35.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="18.7109375" style="15" customWidth="1"/>
+    <col min="9" max="22" width="9.140625" style="14"/>
+    <col min="23" max="23" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="C6" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="C8" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="C14" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="21" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="C22" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>1463</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>1464</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="C28" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="C29" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="C30" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="C31" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="C32" s="20" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="C33" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>1502</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>1503</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>1504</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B36" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>1505</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="B37" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="C38" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="C39" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="C40" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="C41" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="C42" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="C43" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="C44" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="C46" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="C47" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>1454</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="B51" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="C52" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="C53" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="C54" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="C56" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="C57" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="C61" s="20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="C63" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="C64" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="C65" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C66" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="C67" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="C68" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="C69" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="C70" s="20" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="C71" s="20" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="C72" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C73" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="C74" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="C75" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="C76" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="C77" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206"/>
+      <c r="C78" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="E79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="E80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="E81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="E82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="E83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="E84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="E85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="E86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="E87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="E88" s="20"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="E89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="E90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="E91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="E92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="E93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="E94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="E95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="E96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="E97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="E98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="E99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="E100" s="20"/>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="E101" s="20"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="E102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="E103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="E104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="E105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="E106" s="20"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="E107" s="20"/>
+      <c r="H107" s="20"/>
+    </row>
+    <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="E108" s="20"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="E109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="E110" s="20"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="E111" s="20"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="E112" s="20"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="E113" s="20"/>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="114" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="E114" s="20"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="E115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="E116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="E117" s="20"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="E118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="E119" s="20"/>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="E120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="E121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="E122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="E123" s="20"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="E124" s="20"/>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="E125" s="20"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="E126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="E127" s="20"/>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="E128" s="20"/>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="E129" s="20"/>
+      <c r="H129" s="20"/>
+    </row>
+    <row r="130" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="E130" s="20"/>
+      <c r="H130" s="20"/>
+    </row>
+    <row r="131" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="E131" s="20"/>
+      <c r="H131" s="20"/>
+    </row>
+    <row r="132" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="E132" s="20"/>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="E133" s="20"/>
+      <c r="H133" s="20"/>
+    </row>
+    <row r="134" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="E134" s="20"/>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="135" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="E135" s="20"/>
+      <c r="H135" s="20"/>
+    </row>
+    <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="E136" s="20"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="E137" s="20"/>
+      <c r="H137" s="20"/>
+    </row>
+    <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="E138" s="20"/>
+      <c r="H138" s="20"/>
+    </row>
+    <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="E139" s="20"/>
+      <c r="H139" s="20"/>
+    </row>
+    <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="E140" s="20"/>
+      <c r="H140" s="20"/>
+    </row>
+    <row r="141" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="E141" s="20"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="E142" s="20"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="E143" s="20"/>
+      <c r="H143" s="20"/>
+    </row>
+    <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="E144" s="20"/>
+      <c r="H144" s="20"/>
+    </row>
+    <row r="145" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="E145" s="20"/>
+      <c r="H145" s="20"/>
+    </row>
+    <row r="146" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="E146" s="20"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="E147" s="20"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="E148" s="20"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="E149" s="20"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="E150" s="20"/>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="E151" s="20"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="E152" s="20"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="E153" s="20"/>
+      <c r="H153" s="20"/>
+    </row>
+    <row r="154" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="E154" s="20"/>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="155" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="E155" s="20"/>
+      <c r="H155" s="20"/>
+    </row>
+    <row r="156" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="E156" s="20"/>
+      <c r="H156" s="20"/>
+    </row>
+    <row r="157" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="E157" s="20"/>
+      <c r="H157" s="20"/>
+    </row>
+    <row r="158" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="E158" s="20"/>
+      <c r="H158" s="20"/>
+    </row>
+    <row r="159" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="E159" s="20"/>
+      <c r="H159" s="20"/>
+    </row>
+    <row r="160" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="E160" s="20"/>
+      <c r="H160" s="20"/>
+    </row>
+    <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="E161" s="20"/>
+      <c r="H161" s="20"/>
+    </row>
+    <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="E162" s="20"/>
+      <c r="H162" s="20"/>
+    </row>
+    <row r="163" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="E163" s="20"/>
+      <c r="H163" s="20"/>
+    </row>
+    <row r="164" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="E164" s="20"/>
+      <c r="H164" s="20"/>
+    </row>
+    <row r="165" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="E165" s="20"/>
+      <c r="H165" s="20"/>
+    </row>
+    <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="E166" s="20"/>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="E167" s="20"/>
+      <c r="H167" s="20"/>
+    </row>
+    <row r="168" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="E168" s="20"/>
+      <c r="H168" s="20"/>
+    </row>
+    <row r="169" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="E169" s="20"/>
+      <c r="H169" s="20"/>
+    </row>
+    <row r="170" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="E170" s="20"/>
+      <c r="H170" s="20"/>
+    </row>
+    <row r="171" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="E171" s="20"/>
+      <c r="H171" s="20"/>
+    </row>
+    <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="14"/>
+      <c r="E172" s="20"/>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="14"/>
+      <c r="E173" s="20"/>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="E174" s="20"/>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="14"/>
+      <c r="E175" s="20"/>
+      <c r="H175" s="20"/>
+    </row>
+    <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14"/>
+      <c r="E176" s="20"/>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="177" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="14"/>
+      <c r="E177" s="20"/>
+      <c r="H177" s="20"/>
+    </row>
+    <row r="178" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="14"/>
+      <c r="E178" s="20"/>
+      <c r="H178" s="20"/>
+    </row>
+    <row r="179" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="14"/>
+      <c r="E179" s="20"/>
+      <c r="H179" s="20"/>
+    </row>
+    <row r="180" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="14"/>
+      <c r="E180" s="20"/>
+      <c r="H180" s="20"/>
+    </row>
+    <row r="181" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="E181" s="20"/>
+      <c r="H181" s="20"/>
+    </row>
+    <row r="182" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="14"/>
+      <c r="E182" s="20"/>
+      <c r="H182" s="20"/>
+    </row>
+    <row r="183" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14"/>
+      <c r="E183" s="20"/>
+      <c r="H183" s="20"/>
+    </row>
+    <row r="184" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="14"/>
+      <c r="E184" s="20"/>
+      <c r="H184" s="20"/>
+    </row>
+    <row r="185" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14"/>
+      <c r="E185" s="20"/>
+      <c r="H185" s="20"/>
+    </row>
+    <row r="186" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="14"/>
+      <c r="E186" s="20"/>
+      <c r="H186" s="20"/>
+    </row>
+    <row r="187" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14"/>
+      <c r="E187" s="20"/>
+      <c r="H187" s="20"/>
+    </row>
+    <row r="188" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14"/>
+      <c r="E188" s="20"/>
+      <c r="H188" s="20"/>
+    </row>
+    <row r="189" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14"/>
+      <c r="E189" s="20"/>
+      <c r="H189" s="20"/>
+    </row>
+    <row r="190" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="14"/>
+      <c r="E190" s="20"/>
+      <c r="H190" s="20"/>
+    </row>
+    <row r="191" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="E191" s="20"/>
+      <c r="H191" s="20"/>
+    </row>
+    <row r="192" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="14"/>
+      <c r="E192" s="20"/>
+      <c r="H192" s="20"/>
+    </row>
+    <row r="193" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="14"/>
+      <c r="E193" s="20"/>
+      <c r="H193" s="20"/>
+    </row>
+    <row r="194" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="14"/>
+      <c r="E194" s="20"/>
+      <c r="H194" s="20"/>
+    </row>
+    <row r="195" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="14"/>
+      <c r="E195" s="20"/>
+      <c r="H195" s="20"/>
+    </row>
+    <row r="196" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="14"/>
+      <c r="E196" s="20"/>
+      <c r="H196" s="20"/>
+    </row>
+    <row r="197" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="14"/>
+      <c r="E197" s="20"/>
+      <c r="H197" s="20"/>
+    </row>
+    <row r="198" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="14"/>
+      <c r="E198" s="20"/>
+      <c r="H198" s="20"/>
+    </row>
+    <row r="199" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="E199" s="20"/>
+      <c r="H199" s="20"/>
+    </row>
+    <row r="200" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="E200" s="20"/>
+      <c r="H200" s="20"/>
+    </row>
+    <row r="201" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="14"/>
+      <c r="E201" s="20"/>
+      <c r="H201" s="20"/>
+    </row>
+    <row r="202" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="14"/>
+      <c r="E202" s="20"/>
+      <c r="H202" s="20"/>
+    </row>
+    <row r="203" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="14"/>
+      <c r="E203" s="20"/>
+      <c r="H203" s="20"/>
+    </row>
+    <row r="204" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="14"/>
+      <c r="E204" s="20"/>
+      <c r="H204" s="20"/>
+    </row>
+    <row r="205" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="14"/>
+      <c r="E205" s="20"/>
+      <c r="H205" s="20"/>
+    </row>
+    <row r="206" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14"/>
+      <c r="E206" s="20"/>
+      <c r="H206" s="20"/>
+    </row>
+    <row r="207" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E207" s="20"/>
+      <c r="H207" s="20"/>
+    </row>
+    <row r="208" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E208" s="20"/>
+      <c r="H208" s="20"/>
+    </row>
+    <row r="209" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E209" s="20"/>
+      <c r="H209" s="20"/>
+    </row>
+    <row r="210" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E210" s="20"/>
+      <c r="H210" s="20"/>
+    </row>
+    <row r="211" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E211" s="20"/>
+      <c r="H211" s="20"/>
+    </row>
+    <row r="212" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E212" s="20"/>
+      <c r="H212" s="20"/>
+    </row>
+    <row r="213" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E213" s="20"/>
+      <c r="H213" s="20"/>
+    </row>
+    <row r="214" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E214" s="20"/>
+      <c r="H214" s="20"/>
+    </row>
+    <row r="215" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E215" s="20"/>
+      <c r="H215" s="20"/>
+    </row>
+    <row r="216" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E216" s="20"/>
+      <c r="H216" s="20"/>
+    </row>
+    <row r="217" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E217" s="20"/>
+      <c r="H217" s="20"/>
+    </row>
+    <row r="218" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E218" s="20"/>
+      <c r="H218" s="20"/>
+    </row>
+    <row r="219" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E219" s="20"/>
+      <c r="H219" s="20"/>
+    </row>
+    <row r="220" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E220" s="20"/>
+      <c r="H220" s="20"/>
+    </row>
+    <row r="221" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E221" s="20"/>
+      <c r="H221" s="20"/>
+    </row>
+    <row r="222" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E222" s="20"/>
+      <c r="H222" s="20"/>
+    </row>
+    <row r="223" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E223" s="20"/>
+      <c r="H223" s="20"/>
+    </row>
+    <row r="224" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E224" s="20"/>
+      <c r="H224" s="20"/>
+    </row>
+    <row r="225" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E225" s="20"/>
+      <c r="H225" s="20"/>
+    </row>
+    <row r="226" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E226" s="20"/>
+      <c r="H226" s="20"/>
+    </row>
+    <row r="227" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E227" s="20"/>
+      <c r="H227" s="20"/>
+    </row>
+    <row r="228" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E228" s="20"/>
+      <c r="H228" s="20"/>
+    </row>
+    <row r="229" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E229" s="20"/>
+      <c r="H229" s="20"/>
+    </row>
+    <row r="230" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E230" s="20"/>
+      <c r="H230" s="20"/>
+    </row>
+    <row r="231" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E231" s="20"/>
+      <c r="H231" s="20"/>
+    </row>
+    <row r="232" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E232" s="20"/>
+      <c r="H232" s="20"/>
+    </row>
+    <row r="233" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E233" s="20"/>
+      <c r="H233" s="20"/>
+    </row>
+    <row r="234" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E234" s="20"/>
+      <c r="H234" s="20"/>
+    </row>
+    <row r="235" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E235" s="20"/>
+      <c r="H235" s="20"/>
+    </row>
+    <row r="236" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E236" s="20"/>
+      <c r="H236" s="20"/>
+    </row>
+    <row r="237" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E237" s="20"/>
+      <c r="H237" s="20"/>
+    </row>
+    <row r="238" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E238" s="20"/>
+      <c r="H238" s="20"/>
+    </row>
+    <row r="239" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E239" s="20"/>
+      <c r="H239" s="20"/>
+    </row>
+    <row r="240" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E240" s="20"/>
+      <c r="H240" s="20"/>
+    </row>
+    <row r="241" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E241" s="20"/>
+      <c r="H241" s="20"/>
+    </row>
+    <row r="242" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E242" s="20"/>
+      <c r="H242" s="20"/>
+    </row>
+    <row r="243" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E243" s="20"/>
+      <c r="H243" s="20"/>
+    </row>
+    <row r="244" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E244" s="20"/>
+      <c r="H244" s="20"/>
+    </row>
+    <row r="245" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E245" s="20"/>
+      <c r="H245" s="20"/>
+    </row>
+    <row r="246" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E246" s="20"/>
+      <c r="H246" s="20"/>
+    </row>
+    <row r="247" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E247" s="20"/>
+      <c r="H247" s="20"/>
+    </row>
+    <row r="248" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E248" s="20"/>
+      <c r="H248" s="20"/>
+    </row>
+    <row r="249" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E249" s="20"/>
+      <c r="H249" s="20"/>
+    </row>
+    <row r="250" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E250" s="20"/>
+      <c r="H250" s="20"/>
+    </row>
+    <row r="251" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E251" s="20"/>
+      <c r="H251" s="20"/>
+    </row>
+    <row r="252" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E252" s="20"/>
+      <c r="H252" s="20"/>
+    </row>
+    <row r="253" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E253" s="20"/>
+      <c r="H253" s="20"/>
+    </row>
+    <row r="254" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E254" s="20"/>
+      <c r="H254" s="20"/>
+    </row>
+    <row r="255" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E255" s="20"/>
+      <c r="H255" s="20"/>
+    </row>
+    <row r="256" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E256" s="20"/>
+      <c r="H256" s="20"/>
+    </row>
+    <row r="257" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E257" s="20"/>
+      <c r="H257" s="20"/>
+    </row>
+    <row r="258" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E258" s="20"/>
+      <c r="H258" s="20"/>
+    </row>
+    <row r="259" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E259" s="20"/>
+      <c r="H259" s="20"/>
+    </row>
+    <row r="260" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E260" s="20"/>
+      <c r="H260" s="20"/>
+    </row>
+    <row r="261" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E261" s="20"/>
+      <c r="H261" s="20"/>
+    </row>
+    <row r="262" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E262" s="20"/>
+      <c r="H262" s="20"/>
+    </row>
+    <row r="263" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E263" s="20"/>
+      <c r="H263" s="20"/>
+    </row>
+    <row r="264" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E264" s="20"/>
+      <c r="H264" s="20"/>
+    </row>
+    <row r="265" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E265" s="20"/>
+      <c r="H265" s="20"/>
+    </row>
+    <row r="266" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E266" s="20"/>
+      <c r="H266" s="20"/>
+    </row>
+    <row r="267" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E267" s="20"/>
+      <c r="H267" s="20"/>
+    </row>
+    <row r="268" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E268" s="20"/>
+      <c r="H268" s="20"/>
+    </row>
+    <row r="269" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E269" s="20"/>
+      <c r="H269" s="20"/>
+    </row>
+    <row r="270" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E270" s="20"/>
+      <c r="H270" s="20"/>
+    </row>
+    <row r="271" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E271" s="20"/>
+      <c r="H271" s="20"/>
+    </row>
+    <row r="272" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E272" s="20"/>
+      <c r="H272" s="20"/>
+    </row>
+    <row r="273" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E273" s="20"/>
+      <c r="H273" s="20"/>
+    </row>
+    <row r="274" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E274" s="20"/>
+      <c r="H274" s="20"/>
+    </row>
+    <row r="275" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E275" s="20"/>
+      <c r="H275" s="20"/>
+    </row>
+    <row r="276" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E276" s="20"/>
+      <c r="H276" s="20"/>
+    </row>
+    <row r="277" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E277" s="20"/>
+      <c r="H277" s="20"/>
+    </row>
+    <row r="278" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E278" s="20"/>
+      <c r="H278" s="20"/>
+    </row>
+    <row r="279" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E279" s="20"/>
+      <c r="H279" s="20"/>
+    </row>
+    <row r="280" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E280" s="20"/>
+      <c r="H280" s="20"/>
+    </row>
+    <row r="281" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E281" s="20"/>
+      <c r="H281" s="20"/>
+    </row>
+    <row r="282" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E282" s="20"/>
+      <c r="H282" s="20"/>
+    </row>
+    <row r="283" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E283" s="20"/>
+      <c r="H283" s="20"/>
+    </row>
+    <row r="284" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E284" s="20"/>
+      <c r="H284" s="20"/>
+    </row>
+    <row r="285" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E285" s="20"/>
+      <c r="H285" s="20"/>
+    </row>
+    <row r="286" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E286" s="20"/>
+      <c r="H286" s="20"/>
+    </row>
+    <row r="287" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E287" s="20"/>
+      <c r="H287" s="20"/>
+    </row>
+    <row r="288" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E288" s="20"/>
+      <c r="H288" s="20"/>
+    </row>
+    <row r="289" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E289" s="20"/>
+      <c r="H289" s="20"/>
+    </row>
+    <row r="290" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E290" s="20"/>
+      <c r="H290" s="20"/>
+    </row>
+    <row r="291" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E291" s="20"/>
+      <c r="H291" s="20"/>
+    </row>
+    <row r="292" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E292" s="20"/>
+      <c r="H292" s="20"/>
+    </row>
+    <row r="293" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E293" s="20"/>
+      <c r="H293" s="20"/>
+    </row>
+    <row r="294" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E294" s="20"/>
+      <c r="H294" s="20"/>
+    </row>
+    <row r="295" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E295" s="20"/>
+      <c r="H295" s="20"/>
+    </row>
+    <row r="296" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E296" s="20"/>
+      <c r="H296" s="20"/>
+    </row>
+    <row r="297" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E297" s="20"/>
+      <c r="H297" s="20"/>
+    </row>
+    <row r="298" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E298" s="20"/>
+      <c r="H298" s="20"/>
+    </row>
+    <row r="299" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E299" s="20"/>
+      <c r="H299" s="20"/>
+    </row>
+    <row r="300" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E300" s="20"/>
+      <c r="H300" s="20"/>
+    </row>
+    <row r="301" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E301" s="20"/>
+      <c r="H301" s="20"/>
+    </row>
+    <row r="302" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E302" s="20"/>
+      <c r="H302" s="20"/>
+    </row>
+    <row r="303" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E303" s="20"/>
+      <c r="H303" s="20"/>
+    </row>
+    <row r="304" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E304" s="20"/>
+      <c r="H304" s="20"/>
+    </row>
+    <row r="305" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E305" s="20"/>
+      <c r="H305" s="20"/>
+    </row>
+    <row r="306" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E306" s="20"/>
+      <c r="H306" s="20"/>
+    </row>
+    <row r="307" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E307" s="20"/>
+      <c r="H307" s="20"/>
+    </row>
+    <row r="308" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E308" s="20"/>
+      <c r="H308" s="20"/>
+    </row>
+    <row r="309" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E309" s="20"/>
+      <c r="H309" s="20"/>
+    </row>
+    <row r="310" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E310" s="20"/>
+      <c r="H310" s="20"/>
+    </row>
+    <row r="311" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E311" s="20"/>
+      <c r="H311" s="20"/>
+    </row>
+    <row r="312" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E312" s="20"/>
+      <c r="H312" s="20"/>
+    </row>
+    <row r="313" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E313" s="20"/>
+      <c r="H313" s="20"/>
+    </row>
+    <row r="314" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E314" s="20"/>
+      <c r="H314" s="20"/>
+    </row>
+    <row r="315" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E315" s="20"/>
+      <c r="H315" s="20"/>
+    </row>
+    <row r="316" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E316" s="20"/>
+      <c r="H316" s="20"/>
+    </row>
+    <row r="317" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E317" s="20"/>
+      <c r="H317" s="20"/>
+    </row>
+    <row r="318" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E318" s="20"/>
+      <c r="H318" s="20"/>
+    </row>
+    <row r="319" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E319" s="20"/>
+      <c r="H319" s="20"/>
+    </row>
+    <row r="320" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E320" s="20"/>
+      <c r="H320" s="20"/>
+    </row>
+    <row r="321" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E321" s="20"/>
+      <c r="H321" s="20"/>
+    </row>
+    <row r="322" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E322" s="20"/>
+      <c r="H322" s="20"/>
+    </row>
+    <row r="323" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E323" s="20"/>
+      <c r="H323" s="20"/>
+    </row>
+    <row r="324" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E324" s="20"/>
+      <c r="H324" s="20"/>
+    </row>
+    <row r="325" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E325" s="20"/>
+      <c r="H325" s="20"/>
+    </row>
+    <row r="326" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E326" s="20"/>
+      <c r="H326" s="20"/>
+    </row>
+    <row r="327" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E327" s="20"/>
+      <c r="H327" s="20"/>
+    </row>
+    <row r="328" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E328" s="20"/>
+      <c r="H328" s="20"/>
+    </row>
+    <row r="329" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E329" s="20"/>
+      <c r="H329" s="20"/>
+    </row>
+    <row r="330" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E330" s="20"/>
+      <c r="H330" s="20"/>
+    </row>
+    <row r="331" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E331" s="20"/>
+      <c r="H331" s="20"/>
+    </row>
+    <row r="332" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E332" s="20"/>
+      <c r="H332" s="20"/>
+    </row>
+    <row r="333" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E333" s="20"/>
+      <c r="H333" s="20"/>
+    </row>
+    <row r="334" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E334" s="20"/>
+      <c r="H334" s="20"/>
+    </row>
+    <row r="335" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E335" s="20"/>
+      <c r="H335" s="20"/>
+    </row>
+    <row r="336" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E336" s="20"/>
+      <c r="H336" s="20"/>
+    </row>
+    <row r="337" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E337" s="20"/>
+      <c r="H337" s="20"/>
+    </row>
+    <row r="338" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E338" s="20"/>
+      <c r="H338" s="20"/>
+    </row>
+    <row r="339" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E339" s="20"/>
+      <c r="H339" s="20"/>
+    </row>
+    <row r="340" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E340" s="20"/>
+      <c r="H340" s="20"/>
+    </row>
+    <row r="341" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E341" s="20"/>
+      <c r="H341" s="20"/>
+    </row>
+    <row r="342" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E342" s="20"/>
+      <c r="H342" s="20"/>
+    </row>
+    <row r="343" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E343" s="20"/>
+      <c r="H343" s="20"/>
+    </row>
+    <row r="344" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E344" s="20"/>
+      <c r="H344" s="20"/>
+    </row>
+    <row r="345" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E345" s="20"/>
+      <c r="H345" s="20"/>
+    </row>
+    <row r="346" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E346" s="20"/>
+      <c r="H346" s="20"/>
+    </row>
+    <row r="347" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E347" s="20"/>
+      <c r="H347" s="20"/>
+    </row>
+    <row r="348" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E348" s="20"/>
+      <c r="H348" s="20"/>
+    </row>
+    <row r="349" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E349" s="20"/>
+      <c r="H349" s="20"/>
+    </row>
+    <row r="350" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E350" s="20"/>
+      <c r="H350" s="20"/>
+    </row>
+    <row r="351" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E351" s="20"/>
+      <c r="H351" s="20"/>
+    </row>
+    <row r="352" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E352" s="20"/>
+      <c r="H352" s="20"/>
+    </row>
+    <row r="353" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E353" s="20"/>
+      <c r="H353" s="20"/>
+    </row>
+    <row r="354" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E354" s="20"/>
+      <c r="H354" s="20"/>
+    </row>
+    <row r="355" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E355" s="20"/>
+      <c r="H355" s="20"/>
+    </row>
+    <row r="356" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E356" s="20"/>
+      <c r="H356" s="20"/>
+    </row>
+    <row r="357" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E357" s="20"/>
+      <c r="H357" s="20"/>
+    </row>
+    <row r="358" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E358" s="20"/>
+      <c r="H358" s="20"/>
+    </row>
+    <row r="359" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E359" s="20"/>
+      <c r="H359" s="20"/>
+    </row>
+    <row r="360" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E360" s="20"/>
+      <c r="H360" s="20"/>
+    </row>
+    <row r="361" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E361" s="20"/>
+      <c r="H361" s="20"/>
+    </row>
+    <row r="362" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E362" s="20"/>
+      <c r="H362" s="20"/>
+    </row>
+    <row r="363" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E363" s="20"/>
+      <c r="H363" s="20"/>
+    </row>
+    <row r="364" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E364" s="20"/>
+      <c r="H364" s="20"/>
+    </row>
+    <row r="365" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E365" s="20"/>
+      <c r="H365" s="20"/>
+    </row>
+    <row r="366" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E366" s="20"/>
+      <c r="H366" s="20"/>
+    </row>
+    <row r="367" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E367" s="20"/>
+      <c r="H367" s="20"/>
+    </row>
+    <row r="368" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E368" s="20"/>
+      <c r="H368" s="20"/>
+    </row>
+    <row r="369" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E369" s="20"/>
+      <c r="H369" s="20"/>
+    </row>
+    <row r="370" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E370" s="20"/>
+      <c r="H370" s="20"/>
+    </row>
+    <row r="371" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E371" s="20"/>
+      <c r="H371" s="20"/>
+    </row>
+    <row r="372" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E372" s="20"/>
+      <c r="H372" s="20"/>
+    </row>
+    <row r="373" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E373" s="20"/>
+      <c r="H373" s="20"/>
+    </row>
+    <row r="374" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E374" s="20"/>
+      <c r="H374" s="20"/>
+    </row>
+    <row r="375" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E375" s="20"/>
+      <c r="H375" s="20"/>
+    </row>
+    <row r="376" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E376" s="20"/>
+      <c r="H376" s="20"/>
+    </row>
+    <row r="377" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E377" s="20"/>
+      <c r="H377" s="20"/>
+    </row>
+    <row r="378" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E378" s="20"/>
+      <c r="H378" s="20"/>
+    </row>
+    <row r="379" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E379" s="20"/>
+      <c r="H379" s="20"/>
+    </row>
+    <row r="380" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E380" s="20"/>
+      <c r="H380" s="20"/>
+    </row>
+    <row r="381" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E381" s="20"/>
+      <c r="H381" s="20"/>
+    </row>
+    <row r="382" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E382" s="20"/>
+      <c r="H382" s="20"/>
+    </row>
+    <row r="383" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E383" s="20"/>
+      <c r="H383" s="20"/>
+    </row>
+    <row r="384" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E384" s="20"/>
+      <c r="H384" s="20"/>
+    </row>
+    <row r="385" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E385" s="20"/>
+      <c r="H385" s="20"/>
+    </row>
+    <row r="386" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E386" s="20"/>
+      <c r="H386" s="20"/>
+    </row>
+    <row r="387" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E387" s="20"/>
+      <c r="H387" s="20"/>
+    </row>
+    <row r="388" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E388" s="20"/>
+      <c r="H388" s="20"/>
+    </row>
+    <row r="389" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E389" s="20"/>
+      <c r="H389" s="20"/>
+    </row>
+    <row r="390" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E390" s="20"/>
+      <c r="H390" s="20"/>
+    </row>
+    <row r="391" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E391" s="20"/>
+      <c r="H391" s="20"/>
+    </row>
+    <row r="392" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E392" s="20"/>
+      <c r="H392" s="20"/>
+    </row>
+    <row r="393" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E393" s="20"/>
+      <c r="H393" s="20"/>
+    </row>
+    <row r="394" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E394" s="20"/>
+      <c r="H394" s="20"/>
+    </row>
+    <row r="395" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E395" s="20"/>
+      <c r="H395" s="20"/>
+    </row>
+    <row r="396" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E396" s="20"/>
+      <c r="H396" s="20"/>
+    </row>
+    <row r="397" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E397" s="20"/>
+      <c r="H397" s="20"/>
+    </row>
+    <row r="398" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E398" s="20"/>
+      <c r="H398" s="20"/>
+    </row>
+    <row r="399" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E399" s="20"/>
+      <c r="H399" s="20"/>
+    </row>
+    <row r="400" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E400" s="20"/>
+      <c r="H400" s="20"/>
+    </row>
+    <row r="401" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E401" s="20"/>
+      <c r="H401" s="20"/>
+    </row>
+    <row r="402" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E402" s="20"/>
+      <c r="H402" s="20"/>
+    </row>
+    <row r="403" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E403" s="20"/>
+      <c r="H403" s="20"/>
+    </row>
+    <row r="404" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E404" s="20"/>
+      <c r="H404" s="20"/>
+    </row>
+    <row r="405" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E405" s="20"/>
+      <c r="H405" s="20"/>
+    </row>
+    <row r="406" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E406" s="20"/>
+      <c r="H406" s="20"/>
+    </row>
+    <row r="407" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E407" s="20"/>
+      <c r="H407" s="20"/>
+    </row>
+    <row r="408" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E408" s="20"/>
+      <c r="H408" s="20"/>
+    </row>
+    <row r="409" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E409" s="20"/>
+      <c r="H409" s="20"/>
+    </row>
+    <row r="410" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E410" s="20"/>
+      <c r="H410" s="20"/>
+    </row>
+    <row r="411" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E411" s="20"/>
+      <c r="H411" s="20"/>
+    </row>
+    <row r="412" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E412" s="20"/>
+      <c r="H412" s="20"/>
+    </row>
+    <row r="413" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E413" s="20"/>
+      <c r="H413" s="20"/>
+    </row>
+    <row r="414" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E414" s="20"/>
+      <c r="H414" s="20"/>
+    </row>
+    <row r="415" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E415" s="20"/>
+      <c r="H415" s="20"/>
+    </row>
+    <row r="416" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E416" s="20"/>
+      <c r="H416" s="20"/>
+    </row>
+    <row r="417" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E417" s="20"/>
+      <c r="H417" s="20"/>
+    </row>
+    <row r="418" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E418" s="20"/>
+      <c r="H418" s="20"/>
+    </row>
+    <row r="419" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E419" s="20"/>
+      <c r="H419" s="20"/>
+    </row>
+    <row r="420" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E420" s="20"/>
+      <c r="H420" s="20"/>
+    </row>
+    <row r="421" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E421" s="20"/>
+      <c r="H421" s="20"/>
+    </row>
+    <row r="422" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E422" s="20"/>
+      <c r="H422" s="20"/>
+    </row>
+    <row r="423" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E423" s="20"/>
+      <c r="H423" s="20"/>
+    </row>
+    <row r="424" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E424" s="20"/>
+      <c r="H424" s="20"/>
+    </row>
+    <row r="425" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E425" s="20"/>
+      <c r="H425" s="20"/>
+    </row>
+    <row r="426" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E426" s="20"/>
+      <c r="H426" s="20"/>
+    </row>
+    <row r="427" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E427" s="20"/>
+      <c r="H427" s="20"/>
+    </row>
+    <row r="428" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E428" s="20"/>
+      <c r="H428" s="20"/>
+    </row>
+    <row r="429" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E429" s="20"/>
+      <c r="H429" s="20"/>
+    </row>
+    <row r="430" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E430" s="20"/>
+      <c r="H430" s="20"/>
+    </row>
+    <row r="431" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E431" s="20"/>
+      <c r="H431" s="20"/>
+    </row>
+    <row r="432" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E432" s="20"/>
+      <c r="H432" s="20"/>
+    </row>
+    <row r="433" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E433" s="20"/>
+      <c r="H433" s="20"/>
+    </row>
+    <row r="434" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E434" s="20"/>
+      <c r="H434" s="20"/>
+    </row>
+    <row r="435" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E435" s="20"/>
+      <c r="H435" s="20"/>
+    </row>
+    <row r="436" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E436" s="20"/>
+      <c r="H436" s="20"/>
+    </row>
+    <row r="437" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E437" s="20"/>
+      <c r="H437" s="20"/>
+    </row>
+    <row r="438" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E438" s="20"/>
+      <c r="H438" s="20"/>
+    </row>
+    <row r="439" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E439" s="20"/>
+      <c r="H439" s="20"/>
+    </row>
+    <row r="440" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E440" s="20"/>
+      <c r="H440" s="20"/>
+    </row>
+    <row r="441" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E441" s="20"/>
+      <c r="H441" s="20"/>
+    </row>
+    <row r="442" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E442" s="20"/>
+      <c r="H442" s="20"/>
+    </row>
+    <row r="443" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E443" s="20"/>
+      <c r="H443" s="20"/>
+    </row>
+    <row r="444" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E444" s="20"/>
+      <c r="H444" s="20"/>
+    </row>
+    <row r="445" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E445" s="20"/>
+      <c r="H445" s="20"/>
+    </row>
+    <row r="446" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E446" s="20"/>
+      <c r="H446" s="20"/>
+    </row>
+    <row r="447" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E447" s="20"/>
+      <c r="H447" s="20"/>
+    </row>
+    <row r="448" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E448" s="20"/>
+      <c r="H448" s="20"/>
+    </row>
+    <row r="449" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E449" s="20"/>
+      <c r="H449" s="20"/>
+    </row>
+    <row r="450" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E450" s="20"/>
+      <c r="H450" s="20"/>
+    </row>
+    <row r="451" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E451" s="20"/>
+      <c r="H451" s="20"/>
+    </row>
+    <row r="452" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E452" s="20"/>
+      <c r="H452" s="20"/>
+    </row>
+    <row r="453" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E453" s="20"/>
+      <c r="H453" s="20"/>
+    </row>
+    <row r="454" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E454" s="20"/>
+      <c r="H454" s="20"/>
+    </row>
+    <row r="455" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E455" s="20"/>
+      <c r="H455" s="20"/>
+    </row>
+    <row r="456" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E456" s="20"/>
+      <c r="H456" s="20"/>
+    </row>
+    <row r="457" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E457" s="20"/>
+      <c r="H457" s="20"/>
+    </row>
+    <row r="458" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E458" s="20"/>
+      <c r="H458" s="20"/>
+    </row>
+    <row r="459" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E459" s="20"/>
+      <c r="H459" s="20"/>
+    </row>
+    <row r="460" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E460" s="20"/>
+      <c r="H460" s="20"/>
+    </row>
+    <row r="461" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E461" s="20"/>
+      <c r="H461" s="20"/>
+    </row>
+    <row r="462" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E462" s="20"/>
+      <c r="H462" s="20"/>
+    </row>
+    <row r="463" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E463" s="20"/>
+      <c r="H463" s="20"/>
+    </row>
+    <row r="464" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E464" s="20"/>
+      <c r="H464" s="20"/>
+    </row>
+    <row r="465" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E465" s="20"/>
+      <c r="H465" s="20"/>
+    </row>
+    <row r="466" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E466" s="20"/>
+      <c r="H466" s="20"/>
+    </row>
+    <row r="467" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E467" s="20"/>
+      <c r="H467" s="20"/>
+    </row>
+    <row r="468" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E468" s="20"/>
+      <c r="H468" s="20"/>
+    </row>
+    <row r="469" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E469" s="20"/>
+      <c r="H469" s="20"/>
+    </row>
+    <row r="470" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E470" s="20"/>
+      <c r="H470" s="20"/>
+    </row>
+    <row r="471" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E471" s="20"/>
+      <c r="H471" s="20"/>
+    </row>
+    <row r="472" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E472" s="20"/>
+      <c r="H472" s="20"/>
+    </row>
+    <row r="473" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E473" s="20"/>
+      <c r="H473" s="20"/>
+    </row>
+    <row r="474" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E474" s="20"/>
+      <c r="H474" s="20"/>
+    </row>
+    <row r="475" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E475" s="20"/>
+      <c r="H475" s="20"/>
+    </row>
+    <row r="476" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E476" s="20"/>
+      <c r="H476" s="20"/>
+    </row>
+    <row r="477" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E477" s="20"/>
+      <c r="H477" s="20"/>
+    </row>
+    <row r="478" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E478" s="20"/>
+      <c r="H478" s="20"/>
+    </row>
+    <row r="479" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E479" s="20"/>
+      <c r="H479" s="20"/>
+    </row>
+    <row r="480" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E480" s="20"/>
+      <c r="H480" s="20"/>
+    </row>
+    <row r="481" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E481" s="20"/>
+      <c r="H481" s="20"/>
+    </row>
+    <row r="482" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E482" s="20"/>
+      <c r="H482" s="20"/>
+    </row>
+    <row r="483" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E483" s="20"/>
+      <c r="H483" s="20"/>
+    </row>
+    <row r="484" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E484" s="20"/>
+      <c r="H484" s="20"/>
+    </row>
+    <row r="485" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E485" s="20"/>
+      <c r="H485" s="20"/>
+    </row>
+    <row r="486" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E486" s="20"/>
+      <c r="H486" s="20"/>
+    </row>
+    <row r="487" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E487" s="20"/>
+      <c r="H487" s="20"/>
+    </row>
+    <row r="488" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E488" s="20"/>
+      <c r="H488" s="20"/>
+    </row>
+    <row r="489" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E489" s="20"/>
+      <c r="H489" s="20"/>
+    </row>
+    <row r="490" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E490" s="20"/>
+      <c r="H490" s="20"/>
+    </row>
+    <row r="491" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E491" s="20"/>
+      <c r="H491" s="20"/>
+    </row>
+    <row r="492" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E492" s="20"/>
+      <c r="H492" s="20"/>
+    </row>
+    <row r="493" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E493" s="20"/>
+      <c r="H493" s="20"/>
+    </row>
+    <row r="494" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E494" s="20"/>
+      <c r="H494" s="20"/>
+    </row>
+    <row r="495" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E495" s="20"/>
+      <c r="H495" s="20"/>
+    </row>
+    <row r="496" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E496" s="20"/>
+      <c r="H496" s="20"/>
+    </row>
+    <row r="497" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E497" s="20"/>
+      <c r="H497" s="20"/>
+    </row>
+    <row r="498" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E498" s="20"/>
+      <c r="H498" s="20"/>
+    </row>
+    <row r="499" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E499" s="20"/>
+      <c r="H499" s="20"/>
+    </row>
+    <row r="500" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E500" s="20"/>
+      <c r="H500" s="20"/>
+    </row>
+    <row r="501" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E501" s="20"/>
+      <c r="H501" s="20"/>
+    </row>
+    <row r="502" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E502" s="20"/>
+      <c r="H502" s="20"/>
+    </row>
+    <row r="503" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E503" s="20"/>
+      <c r="H503" s="20"/>
+    </row>
+    <row r="504" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E504" s="20"/>
+      <c r="H504" s="20"/>
+    </row>
+    <row r="505" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E505" s="20"/>
+      <c r="H505" s="20"/>
+    </row>
+    <row r="506" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E506" s="20"/>
+      <c r="H506" s="20"/>
+    </row>
+    <row r="507" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E507" s="20"/>
+      <c r="H507" s="20"/>
+    </row>
+    <row r="508" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E508" s="20"/>
+      <c r="H508" s="20"/>
+    </row>
+    <row r="509" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E509" s="20"/>
+      <c r="H509" s="20"/>
+    </row>
+    <row r="510" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E510" s="20"/>
+      <c r="H510" s="20"/>
+    </row>
+    <row r="511" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E511" s="20"/>
+      <c r="H511" s="20"/>
+    </row>
+    <row r="512" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E512" s="20"/>
+      <c r="H512" s="20"/>
+    </row>
+    <row r="513" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E513" s="20"/>
+      <c r="H513" s="20"/>
+    </row>
+    <row r="514" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E514" s="20"/>
+      <c r="H514" s="20"/>
+    </row>
+    <row r="515" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E515" s="20"/>
+      <c r="H515" s="20"/>
+    </row>
+    <row r="516" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E516" s="20"/>
+      <c r="H516" s="20"/>
+    </row>
+    <row r="517" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E517" s="20"/>
+      <c r="H517" s="20"/>
+    </row>
+    <row r="518" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E518" s="20"/>
+      <c r="H518" s="20"/>
+    </row>
+    <row r="519" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E519" s="20"/>
+      <c r="H519" s="20"/>
+    </row>
+    <row r="520" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E520" s="20"/>
+      <c r="H520" s="20"/>
+    </row>
+    <row r="521" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E521" s="20"/>
+      <c r="H521" s="20"/>
+    </row>
+    <row r="522" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E522" s="20"/>
+      <c r="H522" s="20"/>
+    </row>
+    <row r="523" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E523" s="20"/>
+      <c r="H523" s="20"/>
+    </row>
+    <row r="524" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E524" s="20"/>
+      <c r="H524" s="20"/>
+    </row>
+    <row r="525" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E525" s="20"/>
+      <c r="H525" s="20"/>
+    </row>
+    <row r="526" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E526" s="20"/>
+      <c r="H526" s="20"/>
+    </row>
+    <row r="527" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E527" s="20"/>
+      <c r="H527" s="20"/>
+    </row>
+    <row r="528" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E528" s="20"/>
+      <c r="H528" s="20"/>
+    </row>
+    <row r="529" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E529" s="20"/>
+      <c r="H529" s="20"/>
+    </row>
+    <row r="530" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E530" s="20"/>
+      <c r="H530" s="20"/>
+    </row>
+    <row r="531" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E531" s="20"/>
+      <c r="H531" s="20"/>
+    </row>
+    <row r="532" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E532" s="20"/>
+      <c r="H532" s="20"/>
+    </row>
+    <row r="533" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E533" s="20"/>
+      <c r="H533" s="20"/>
+    </row>
+    <row r="534" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E534" s="20"/>
+      <c r="H534" s="20"/>
+    </row>
+    <row r="535" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E535" s="20"/>
+      <c r="H535" s="20"/>
+    </row>
+    <row r="536" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E536" s="20"/>
+      <c r="H536" s="20"/>
+    </row>
+    <row r="537" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E537" s="20"/>
+      <c r="H537" s="20"/>
+    </row>
+    <row r="538" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E538" s="20"/>
+      <c r="H538" s="20"/>
+    </row>
+    <row r="539" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E539" s="20"/>
+      <c r="H539" s="20"/>
+    </row>
+    <row r="540" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E540" s="20"/>
+      <c r="H540" s="20"/>
+    </row>
+    <row r="541" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E541" s="20"/>
+      <c r="H541" s="20"/>
+    </row>
+    <row r="542" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E542" s="20"/>
+      <c r="H542" s="20"/>
+    </row>
+    <row r="543" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E543" s="20"/>
+      <c r="H543" s="20"/>
+    </row>
+    <row r="544" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E544" s="20"/>
+      <c r="H544" s="20"/>
+    </row>
+    <row r="545" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E545" s="20"/>
+      <c r="H545" s="20"/>
+    </row>
+    <row r="546" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E546" s="20"/>
+      <c r="H546" s="20"/>
+    </row>
+    <row r="547" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E547" s="20"/>
+      <c r="H547" s="20"/>
+    </row>
+    <row r="548" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E548" s="20"/>
+      <c r="H548" s="20"/>
+    </row>
+    <row r="549" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E549" s="20"/>
+      <c r="H549" s="20"/>
+    </row>
+    <row r="550" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E550" s="20"/>
+      <c r="H550" s="20"/>
+    </row>
+    <row r="551" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E551" s="20"/>
+      <c r="H551" s="20"/>
+    </row>
+    <row r="552" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E552" s="20"/>
+      <c r="H552" s="20"/>
+    </row>
+    <row r="553" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E553" s="20"/>
+      <c r="H553" s="20"/>
+    </row>
+    <row r="554" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E554" s="20"/>
+      <c r="H554" s="20"/>
+    </row>
+    <row r="555" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E555" s="20"/>
+      <c r="H555" s="20"/>
+    </row>
+    <row r="556" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E556" s="20"/>
+      <c r="H556" s="20"/>
+    </row>
+    <row r="557" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E557" s="20"/>
+      <c r="H557" s="20"/>
+    </row>
+    <row r="558" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E558" s="20"/>
+      <c r="H558" s="20"/>
+    </row>
+    <row r="559" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E559" s="20"/>
+      <c r="H559" s="20"/>
+    </row>
+    <row r="560" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E560" s="20"/>
+      <c r="H560" s="20"/>
+    </row>
+    <row r="561" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E561" s="20"/>
+      <c r="H561" s="20"/>
+    </row>
+    <row r="562" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E562" s="20"/>
+      <c r="H562" s="20"/>
+    </row>
+    <row r="563" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E563" s="20"/>
+      <c r="H563" s="20"/>
+    </row>
+    <row r="564" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E564" s="20"/>
+      <c r="H564" s="20"/>
+    </row>
+    <row r="565" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E565" s="20"/>
+      <c r="H565" s="20"/>
+    </row>
+    <row r="566" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E566" s="20"/>
+      <c r="H566" s="20"/>
+    </row>
+    <row r="567" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E567" s="20"/>
+      <c r="H567" s="20"/>
+    </row>
+    <row r="568" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E568" s="20"/>
+      <c r="H568" s="20"/>
+    </row>
+    <row r="569" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E569" s="20"/>
+      <c r="H569" s="20"/>
+    </row>
+    <row r="570" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E570" s="20"/>
+      <c r="H570" s="20"/>
+    </row>
+    <row r="571" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E571" s="20"/>
+      <c r="H571" s="20"/>
+    </row>
+    <row r="572" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E572" s="20"/>
+      <c r="H572" s="20"/>
+    </row>
+    <row r="573" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E573" s="20"/>
+      <c r="H573" s="20"/>
+    </row>
+    <row r="574" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E574" s="20"/>
+      <c r="H574" s="20"/>
+    </row>
+    <row r="575" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E575" s="20"/>
+      <c r="H575" s="20"/>
+    </row>
+    <row r="576" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E576" s="20"/>
+      <c r="H576" s="20"/>
+    </row>
+    <row r="577" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E577" s="20"/>
+      <c r="H577" s="20"/>
+    </row>
+    <row r="578" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E578" s="20"/>
+      <c r="H578" s="20"/>
+    </row>
+    <row r="579" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E579" s="20"/>
+      <c r="H579" s="20"/>
+    </row>
+    <row r="580" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E580" s="20"/>
+      <c r="H580" s="20"/>
+    </row>
+    <row r="581" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E581" s="20"/>
+      <c r="H581" s="20"/>
+    </row>
+    <row r="582" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E582" s="20"/>
+      <c r="H582" s="20"/>
+    </row>
+    <row r="583" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E583" s="20"/>
+      <c r="H583" s="20"/>
+    </row>
+    <row r="584" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E584" s="20"/>
+      <c r="H584" s="20"/>
+    </row>
+    <row r="585" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E585" s="20"/>
+      <c r="H585" s="20"/>
+    </row>
+    <row r="586" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E586" s="20"/>
+      <c r="H586" s="20"/>
+    </row>
+    <row r="587" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E587" s="20"/>
+      <c r="H587" s="20"/>
+    </row>
+    <row r="588" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E588" s="20"/>
+      <c r="H588" s="20"/>
+    </row>
+    <row r="589" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E589" s="20"/>
+      <c r="H589" s="20"/>
+    </row>
+    <row r="590" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E590" s="20"/>
+      <c r="H590" s="20"/>
+    </row>
+    <row r="591" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E591" s="20"/>
+      <c r="H591" s="20"/>
+    </row>
+    <row r="592" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E592" s="20"/>
+      <c r="H592" s="20"/>
+    </row>
+    <row r="593" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E593" s="20"/>
+      <c r="H593" s="20"/>
+    </row>
+    <row r="594" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E594" s="20"/>
+      <c r="H594" s="20"/>
+    </row>
+    <row r="595" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E595" s="20"/>
+      <c r="H595" s="20"/>
+    </row>
+    <row r="596" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E596" s="20"/>
+      <c r="H596" s="20"/>
+    </row>
+    <row r="597" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E597" s="20"/>
+      <c r="H597" s="20"/>
+    </row>
+    <row r="598" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E598" s="20"/>
+      <c r="H598" s="20"/>
+    </row>
+    <row r="599" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E599" s="20"/>
+      <c r="H599" s="20"/>
+    </row>
+    <row r="600" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E600" s="20"/>
+      <c r="H600" s="20"/>
+    </row>
+    <row r="601" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E601" s="20"/>
+      <c r="H601" s="20"/>
+    </row>
+    <row r="602" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E602" s="20"/>
+      <c r="H602" s="20"/>
+    </row>
+    <row r="603" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E603" s="20"/>
+      <c r="H603" s="20"/>
+    </row>
+    <row r="604" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E604" s="20"/>
+      <c r="H604" s="20"/>
+    </row>
+    <row r="605" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E605" s="20"/>
+      <c r="H605" s="20"/>
+    </row>
+    <row r="606" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E606" s="20"/>
+      <c r="H606" s="20"/>
+    </row>
+    <row r="607" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E607" s="20"/>
+      <c r="H607" s="20"/>
+    </row>
+    <row r="608" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E608" s="20"/>
+      <c r="H608" s="20"/>
+    </row>
+    <row r="609" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E609" s="20"/>
+      <c r="H609" s="20"/>
+    </row>
+    <row r="610" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E610" s="20"/>
+      <c r="H610" s="20"/>
+    </row>
+    <row r="611" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E611" s="20"/>
+      <c r="H611" s="20"/>
+    </row>
+    <row r="612" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E612" s="20"/>
+      <c r="H612" s="20"/>
+    </row>
+    <row r="613" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E613" s="20"/>
+      <c r="H613" s="20"/>
+    </row>
+    <row r="614" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E614" s="20"/>
+      <c r="H614" s="20"/>
+    </row>
+    <row r="615" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E615" s="20"/>
+      <c r="H615" s="20"/>
+    </row>
+    <row r="616" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E616" s="20"/>
+      <c r="H616" s="20"/>
+    </row>
+    <row r="617" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E617" s="20"/>
+      <c r="H617" s="20"/>
+    </row>
+    <row r="618" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E618" s="20"/>
+      <c r="H618" s="20"/>
+    </row>
+    <row r="619" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E619" s="20"/>
+      <c r="H619" s="20"/>
+    </row>
+    <row r="620" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E620" s="20"/>
+      <c r="H620" s="20"/>
+    </row>
+    <row r="621" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E621" s="20"/>
+      <c r="H621" s="20"/>
+    </row>
+    <row r="622" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E622" s="20"/>
+      <c r="H622" s="20"/>
+    </row>
+    <row r="623" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E623" s="20"/>
+      <c r="H623" s="20"/>
+    </row>
+    <row r="624" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E624" s="20"/>
+      <c r="H624" s="20"/>
+    </row>
+    <row r="625" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E625" s="20"/>
+      <c r="H625" s="20"/>
+    </row>
+    <row r="626" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E626" s="20"/>
+      <c r="H626" s="20"/>
+    </row>
+    <row r="627" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E627" s="20"/>
+      <c r="H627" s="20"/>
+    </row>
+    <row r="628" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E628" s="20"/>
+      <c r="H628" s="20"/>
+    </row>
+    <row r="629" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E629" s="20"/>
+      <c r="H629" s="20"/>
+    </row>
+    <row r="630" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E630" s="20"/>
+      <c r="H630" s="20"/>
+    </row>
+    <row r="631" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E631" s="20"/>
+      <c r="H631" s="20"/>
+    </row>
+    <row r="632" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E632" s="20"/>
+      <c r="H632" s="20"/>
+    </row>
+    <row r="633" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E633" s="20"/>
+      <c r="H633" s="20"/>
+    </row>
+    <row r="634" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E634" s="20"/>
+      <c r="H634" s="20"/>
+    </row>
+    <row r="635" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E635" s="20"/>
+      <c r="H635" s="20"/>
+    </row>
+    <row r="636" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E636" s="20"/>
+      <c r="H636" s="20"/>
+    </row>
+    <row r="637" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E637" s="20"/>
+      <c r="H637" s="20"/>
+    </row>
+    <row r="638" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E638" s="20"/>
+      <c r="H638" s="20"/>
+    </row>
+    <row r="639" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E639" s="20"/>
+      <c r="H639" s="20"/>
+    </row>
+    <row r="640" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E640" s="20"/>
+      <c r="H640" s="20"/>
+    </row>
+    <row r="641" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E641" s="20"/>
+      <c r="H641" s="20"/>
+    </row>
+    <row r="642" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E642" s="20"/>
+      <c r="H642" s="20"/>
+    </row>
+    <row r="643" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E643" s="20"/>
+      <c r="H643" s="20"/>
+    </row>
+    <row r="644" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E644" s="20"/>
+      <c r="H644" s="20"/>
+    </row>
+    <row r="645" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E645" s="20"/>
+      <c r="H645" s="20"/>
+    </row>
+    <row r="646" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E646" s="20"/>
+      <c r="H646" s="20"/>
+    </row>
+    <row r="647" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E647" s="20"/>
+      <c r="H647" s="20"/>
+    </row>
+    <row r="648" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E648" s="20"/>
+      <c r="H648" s="20"/>
+    </row>
+    <row r="649" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E649" s="20"/>
+      <c r="H649" s="20"/>
+    </row>
+    <row r="650" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E650" s="20"/>
+      <c r="H650" s="20"/>
+    </row>
+    <row r="651" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E651" s="20"/>
+      <c r="H651" s="20"/>
+    </row>
+    <row r="652" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E652" s="20"/>
+      <c r="H652" s="20"/>
+    </row>
+    <row r="653" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E653" s="20"/>
+      <c r="H653" s="20"/>
+    </row>
+    <row r="654" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E654" s="20"/>
+      <c r="H654" s="20"/>
+    </row>
+    <row r="655" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E655" s="20"/>
+      <c r="H655" s="20"/>
+    </row>
+    <row r="656" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E656" s="20"/>
+      <c r="H656" s="20"/>
+    </row>
+    <row r="657" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E657" s="20"/>
+      <c r="H657" s="20"/>
+    </row>
+    <row r="658" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E658" s="20"/>
+      <c r="H658" s="20"/>
+    </row>
+    <row r="659" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E659" s="20"/>
+      <c r="H659" s="20"/>
+    </row>
+    <row r="660" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E660" s="20"/>
+      <c r="H660" s="20"/>
+    </row>
+    <row r="661" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E661" s="20"/>
+      <c r="H661" s="20"/>
+    </row>
+    <row r="662" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E662" s="20"/>
+      <c r="H662" s="20"/>
+    </row>
+    <row r="663" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E663" s="20"/>
+      <c r="H663" s="20"/>
+    </row>
+    <row r="664" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E664" s="20"/>
+      <c r="H664" s="20"/>
+    </row>
+    <row r="665" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E665" s="20"/>
+      <c r="H665" s="20"/>
+    </row>
+    <row r="666" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E666" s="20"/>
+      <c r="H666" s="20"/>
+    </row>
+    <row r="667" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E667" s="20"/>
+      <c r="H667" s="20"/>
+    </row>
+    <row r="668" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E668" s="20"/>
+      <c r="H668" s="20"/>
+    </row>
+    <row r="669" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E669" s="20"/>
+      <c r="H669" s="20"/>
+    </row>
+    <row r="670" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E670" s="20"/>
+      <c r="H670" s="20"/>
+    </row>
+    <row r="671" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E671" s="20"/>
+      <c r="H671" s="20"/>
+    </row>
+    <row r="672" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E672" s="20"/>
+      <c r="H672" s="20"/>
+    </row>
+    <row r="673" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E673" s="20"/>
+      <c r="H673" s="20"/>
+    </row>
+    <row r="674" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E674" s="20"/>
+      <c r="H674" s="20"/>
+    </row>
+    <row r="675" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E675" s="20"/>
+      <c r="H675" s="20"/>
+    </row>
+    <row r="676" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E676" s="20"/>
+      <c r="H676" s="20"/>
+    </row>
+    <row r="677" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E677" s="20"/>
+      <c r="H677" s="20"/>
+    </row>
+    <row r="678" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E678" s="20"/>
+      <c r="H678" s="20"/>
+    </row>
+    <row r="679" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E679" s="20"/>
+      <c r="H679" s="20"/>
+    </row>
+    <row r="680" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E680" s="20"/>
+      <c r="H680" s="20"/>
+    </row>
+    <row r="681" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E681" s="20"/>
+      <c r="H681" s="20"/>
+    </row>
+    <row r="682" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E682" s="20"/>
+      <c r="H682" s="20"/>
+    </row>
+    <row r="683" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E683" s="20"/>
+      <c r="H683" s="20"/>
+    </row>
+    <row r="684" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E684" s="20"/>
+      <c r="H684" s="20"/>
+    </row>
+    <row r="685" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E685" s="20"/>
+      <c r="H685" s="20"/>
+    </row>
+    <row r="686" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E686" s="20"/>
+      <c r="H686" s="20"/>
+    </row>
+    <row r="687" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E687" s="20"/>
+      <c r="H687" s="20"/>
+    </row>
+    <row r="688" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E688" s="20"/>
+      <c r="H688" s="20"/>
+    </row>
+    <row r="689" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E689" s="20"/>
+      <c r="H689" s="20"/>
+    </row>
+    <row r="690" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E690" s="20"/>
+      <c r="H690" s="20"/>
+    </row>
+    <row r="691" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E691" s="20"/>
+      <c r="H691" s="20"/>
+    </row>
+    <row r="692" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E692" s="20"/>
+      <c r="H692" s="20"/>
+    </row>
+    <row r="693" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E693" s="20"/>
+      <c r="H693" s="20"/>
+    </row>
+    <row r="694" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E694" s="20"/>
+      <c r="H694" s="20"/>
+    </row>
+    <row r="695" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E695" s="20"/>
+      <c r="H695" s="20"/>
+    </row>
+    <row r="696" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E696" s="20"/>
+      <c r="H696" s="20"/>
+    </row>
+    <row r="697" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E697" s="20"/>
+      <c r="H697" s="20"/>
+    </row>
+    <row r="698" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E698" s="20"/>
+      <c r="H698" s="20"/>
+    </row>
+    <row r="699" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E699" s="20"/>
+      <c r="H699" s="20"/>
+    </row>
+    <row r="700" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E700" s="20"/>
+      <c r="H700" s="20"/>
+    </row>
+    <row r="701" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E701" s="20"/>
+      <c r="H701" s="20"/>
+    </row>
+    <row r="702" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E702" s="20"/>
+      <c r="H702" s="20"/>
+    </row>
+    <row r="703" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E703" s="20"/>
+      <c r="H703" s="20"/>
+    </row>
+    <row r="704" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E704" s="20"/>
+      <c r="H704" s="20"/>
+    </row>
+    <row r="705" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E705" s="20"/>
+      <c r="H705" s="20"/>
+    </row>
+    <row r="706" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E706" s="20"/>
+      <c r="H706" s="20"/>
+    </row>
+    <row r="707" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E707" s="20"/>
+      <c r="H707" s="20"/>
+    </row>
+    <row r="708" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E708" s="20"/>
+      <c r="H708" s="20"/>
+    </row>
+    <row r="709" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E709" s="20"/>
+      <c r="H709" s="20"/>
+    </row>
+    <row r="710" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E710" s="20"/>
+      <c r="H710" s="20"/>
+    </row>
+    <row r="711" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E711" s="20"/>
+      <c r="H711" s="20"/>
+    </row>
+    <row r="712" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E712" s="20"/>
+      <c r="H712" s="20"/>
+    </row>
+    <row r="713" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E713" s="20"/>
+      <c r="H713" s="20"/>
+    </row>
+    <row r="714" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E714" s="20"/>
+      <c r="H714" s="20"/>
+    </row>
+    <row r="715" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E715" s="20"/>
+      <c r="H715" s="20"/>
+    </row>
+    <row r="716" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E716" s="20"/>
+      <c r="H716" s="20"/>
+    </row>
+    <row r="717" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E717" s="20"/>
+      <c r="H717" s="20"/>
+    </row>
+    <row r="718" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E718" s="20"/>
+      <c r="H718" s="20"/>
+    </row>
+    <row r="719" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E719" s="20"/>
+      <c r="H719" s="20"/>
+    </row>
+    <row r="720" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E720" s="20"/>
+      <c r="H720" s="20"/>
+    </row>
+    <row r="721" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E721" s="20"/>
+      <c r="H721" s="20"/>
+    </row>
+    <row r="722" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E722" s="20"/>
+      <c r="H722" s="20"/>
+    </row>
+    <row r="723" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E723" s="20"/>
+      <c r="H723" s="20"/>
+    </row>
+    <row r="724" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E724" s="20"/>
+      <c r="H724" s="20"/>
+    </row>
+    <row r="725" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E725" s="20"/>
+      <c r="H725" s="20"/>
+    </row>
+    <row r="726" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E726" s="20"/>
+      <c r="H726" s="20"/>
+    </row>
+    <row r="727" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E727" s="20"/>
+      <c r="H727" s="20"/>
+    </row>
+    <row r="728" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E728" s="20"/>
+      <c r="H728" s="20"/>
+    </row>
+    <row r="729" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E729" s="20"/>
+      <c r="H729" s="20"/>
+    </row>
+    <row r="730" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E730" s="20"/>
+      <c r="H730" s="20"/>
+    </row>
+    <row r="731" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E731" s="20"/>
+      <c r="H731" s="20"/>
+    </row>
+    <row r="732" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E732" s="20"/>
+      <c r="H732" s="20"/>
+    </row>
+    <row r="733" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E733" s="20"/>
+      <c r="H733" s="20"/>
+    </row>
+    <row r="734" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E734" s="20"/>
+      <c r="H734" s="20"/>
+    </row>
+    <row r="735" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E735" s="20"/>
+      <c r="H735" s="20"/>
+    </row>
+    <row r="736" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E736" s="20"/>
+      <c r="H736" s="20"/>
+    </row>
+    <row r="737" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E737" s="20"/>
+      <c r="H737" s="20"/>
+    </row>
+    <row r="738" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E738" s="20"/>
+      <c r="H738" s="20"/>
+    </row>
+    <row r="739" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E739" s="20"/>
+      <c r="H739" s="20"/>
+    </row>
+    <row r="740" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E740" s="20"/>
+      <c r="H740" s="20"/>
+    </row>
+    <row r="741" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E741" s="20"/>
+      <c r="H741" s="20"/>
+    </row>
+    <row r="742" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E742" s="20"/>
+      <c r="H742" s="20"/>
+    </row>
+    <row r="743" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E743" s="20"/>
+      <c r="H743" s="20"/>
+    </row>
+    <row r="744" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E744" s="20"/>
+      <c r="H744" s="20"/>
+    </row>
+    <row r="745" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E745" s="20"/>
+      <c r="H745" s="20"/>
+    </row>
+    <row r="746" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E746" s="20"/>
+      <c r="H746" s="20"/>
+    </row>
+    <row r="747" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E747" s="20"/>
+      <c r="H747" s="20"/>
+    </row>
+    <row r="748" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E748" s="20"/>
+      <c r="H748" s="20"/>
+    </row>
+    <row r="749" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E749" s="20"/>
+      <c r="H749" s="20"/>
+    </row>
+    <row r="750" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E750" s="20"/>
+      <c r="H750" s="20"/>
+    </row>
+    <row r="751" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E751" s="20"/>
+      <c r="H751" s="20"/>
+    </row>
+    <row r="752" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E752" s="20"/>
+      <c r="H752" s="20"/>
+    </row>
+    <row r="753" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E753" s="20"/>
+      <c r="H753" s="20"/>
+    </row>
+    <row r="754" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E754" s="20"/>
+      <c r="H754" s="20"/>
+    </row>
+    <row r="755" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E755" s="20"/>
+      <c r="H755" s="20"/>
+    </row>
+    <row r="756" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E756" s="20"/>
+      <c r="H756" s="20"/>
+    </row>
+    <row r="757" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E757" s="20"/>
+      <c r="H757" s="20"/>
+    </row>
+    <row r="758" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E758" s="20"/>
+      <c r="H758" s="20"/>
+    </row>
+    <row r="759" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E759" s="20"/>
+      <c r="H759" s="20"/>
+    </row>
+    <row r="760" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E760" s="20"/>
+      <c r="H760" s="20"/>
+    </row>
+    <row r="761" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E761" s="20"/>
+      <c r="H761" s="20"/>
+    </row>
+    <row r="762" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E762" s="20"/>
+      <c r="H762" s="20"/>
+    </row>
+    <row r="763" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E763" s="20"/>
+      <c r="H763" s="20"/>
+    </row>
+    <row r="764" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E764" s="20"/>
+      <c r="H764" s="20"/>
+    </row>
+    <row r="765" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E765" s="20"/>
+      <c r="H765" s="20"/>
+    </row>
+    <row r="766" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E766" s="20"/>
+      <c r="H766" s="20"/>
+    </row>
+    <row r="767" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E767" s="20"/>
+      <c r="H767" s="20"/>
+    </row>
+    <row r="768" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E768" s="20"/>
+      <c r="H768" s="20"/>
+    </row>
+    <row r="769" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E769" s="20"/>
+      <c r="H769" s="20"/>
+    </row>
+    <row r="770" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E770" s="20"/>
+      <c r="H770" s="20"/>
+    </row>
+    <row r="771" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E771" s="20"/>
+      <c r="H771" s="20"/>
+    </row>
+    <row r="772" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E772" s="20"/>
+      <c r="H772" s="20"/>
+    </row>
+    <row r="773" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E773" s="20"/>
+      <c r="H773" s="20"/>
+    </row>
+    <row r="774" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E774" s="20"/>
+      <c r="H774" s="20"/>
+    </row>
+    <row r="775" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E775" s="20"/>
+      <c r="H775" s="20"/>
+    </row>
+    <row r="776" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E776" s="20"/>
+      <c r="H776" s="20"/>
+    </row>
+    <row r="777" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E777" s="20"/>
+      <c r="H777" s="20"/>
+    </row>
+    <row r="778" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E778" s="20"/>
+      <c r="H778" s="20"/>
+    </row>
+    <row r="779" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E779" s="20"/>
+      <c r="H779" s="20"/>
+    </row>
+    <row r="780" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E780" s="20"/>
+      <c r="H780" s="20"/>
+    </row>
+    <row r="781" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E781" s="20"/>
+      <c r="H781" s="20"/>
+    </row>
+    <row r="782" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E782" s="20"/>
+      <c r="H782" s="20"/>
+    </row>
+    <row r="783" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E783" s="20"/>
+      <c r="H783" s="20"/>
+    </row>
+    <row r="784" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E784" s="20"/>
+      <c r="H784" s="20"/>
+    </row>
+    <row r="785" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E785" s="20"/>
+      <c r="H785" s="20"/>
+    </row>
+    <row r="786" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E786" s="20"/>
+      <c r="H786" s="20"/>
+    </row>
+    <row r="787" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E787" s="20"/>
+      <c r="H787" s="20"/>
+    </row>
+    <row r="788" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E788" s="20"/>
+      <c r="H788" s="20"/>
+    </row>
+    <row r="789" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E789" s="20"/>
+      <c r="H789" s="20"/>
+    </row>
+    <row r="790" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E790" s="20"/>
+      <c r="H790" s="20"/>
+    </row>
+    <row r="791" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E791" s="20"/>
+      <c r="H791" s="20"/>
+    </row>
+    <row r="792" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E792" s="20"/>
+      <c r="H792" s="20"/>
+    </row>
+    <row r="793" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E793" s="20"/>
+      <c r="H793" s="20"/>
+    </row>
+    <row r="794" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E794" s="20"/>
+      <c r="H794" s="20"/>
+    </row>
+    <row r="795" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E795" s="20"/>
+      <c r="H795" s="20"/>
+    </row>
+    <row r="796" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E796" s="20"/>
+      <c r="H796" s="20"/>
+    </row>
+    <row r="797" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E797" s="20"/>
+      <c r="H797" s="20"/>
+    </row>
+    <row r="798" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E798" s="20"/>
+      <c r="H798" s="20"/>
+    </row>
+    <row r="799" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E799" s="20"/>
+      <c r="H799" s="20"/>
+    </row>
+    <row r="800" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E800" s="20"/>
+      <c r="H800" s="20"/>
+    </row>
+    <row r="801" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E801" s="20"/>
+      <c r="H801" s="20"/>
+    </row>
+    <row r="802" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E802" s="20"/>
+      <c r="H802" s="20"/>
+    </row>
+    <row r="803" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E803" s="20"/>
+      <c r="H803" s="20"/>
+    </row>
+    <row r="804" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E804" s="20"/>
+      <c r="H804" s="20"/>
+    </row>
+    <row r="805" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E805" s="20"/>
+      <c r="H805" s="20"/>
+    </row>
+    <row r="806" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E806" s="20"/>
+      <c r="H806" s="20"/>
+    </row>
+    <row r="807" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E807" s="20"/>
+      <c r="H807" s="20"/>
+    </row>
+    <row r="808" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E808" s="20"/>
+      <c r="H808" s="20"/>
+    </row>
+    <row r="809" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E809" s="20"/>
+      <c r="H809" s="20"/>
+    </row>
+    <row r="810" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E810" s="20"/>
+      <c r="H810" s="20"/>
+    </row>
+    <row r="811" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E811" s="20"/>
+      <c r="H811" s="20"/>
+    </row>
+    <row r="812" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E812" s="20"/>
+      <c r="H812" s="20"/>
+    </row>
+    <row r="813" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E813" s="20"/>
+      <c r="H813" s="20"/>
+    </row>
+    <row r="814" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E814" s="20"/>
+      <c r="H814" s="20"/>
+    </row>
+    <row r="815" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E815" s="20"/>
+      <c r="H815" s="20"/>
+    </row>
+    <row r="816" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E816" s="20"/>
+      <c r="H816" s="20"/>
+    </row>
+    <row r="817" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E817" s="20"/>
+      <c r="H817" s="20"/>
+    </row>
+    <row r="818" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E818" s="20"/>
+      <c r="H818" s="20"/>
+    </row>
+    <row r="819" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E819" s="20"/>
+      <c r="H819" s="20"/>
+    </row>
+    <row r="820" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E820" s="20"/>
+      <c r="H820" s="20"/>
+    </row>
+    <row r="821" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E821" s="20"/>
+      <c r="H821" s="20"/>
+    </row>
+    <row r="822" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E822" s="20"/>
+      <c r="H822" s="20"/>
+    </row>
+    <row r="823" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E823" s="20"/>
+      <c r="H823" s="20"/>
+    </row>
+    <row r="824" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E824" s="20"/>
+      <c r="H824" s="20"/>
+    </row>
+    <row r="825" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E825" s="20"/>
+      <c r="H825" s="20"/>
+    </row>
+    <row r="826" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E826" s="20"/>
+      <c r="H826" s="20"/>
+    </row>
+    <row r="827" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E827" s="20"/>
+      <c r="H827" s="20"/>
+    </row>
+    <row r="828" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E828" s="20"/>
+      <c r="H828" s="20"/>
+    </row>
+    <row r="829" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E829" s="20"/>
+      <c r="H829" s="20"/>
+    </row>
+    <row r="830" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E830" s="20"/>
+      <c r="H830" s="20"/>
+    </row>
+    <row r="831" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E831" s="20"/>
+      <c r="H831" s="20"/>
+    </row>
+    <row r="832" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E832" s="20"/>
+      <c r="H832" s="20"/>
+    </row>
+    <row r="833" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E833" s="20"/>
+      <c r="H833" s="20"/>
+    </row>
+    <row r="834" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E834" s="20"/>
+      <c r="H834" s="20"/>
+    </row>
+    <row r="835" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E835" s="20"/>
+      <c r="H835" s="20"/>
+    </row>
+    <row r="836" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E836" s="20"/>
+      <c r="H836" s="20"/>
+    </row>
+    <row r="837" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E837" s="20"/>
+      <c r="H837" s="20"/>
+    </row>
+    <row r="838" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E838" s="20"/>
+      <c r="H838" s="20"/>
+    </row>
+    <row r="839" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E839" s="20"/>
+      <c r="H839" s="20"/>
+    </row>
+    <row r="840" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E840" s="20"/>
+      <c r="H840" s="20"/>
+    </row>
+    <row r="841" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E841" s="20"/>
+      <c r="H841" s="20"/>
+    </row>
+    <row r="842" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E842" s="20"/>
+      <c r="H842" s="20"/>
+    </row>
+    <row r="843" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E843" s="20"/>
+      <c r="H843" s="20"/>
+    </row>
+    <row r="844" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E844" s="20"/>
+      <c r="H844" s="20"/>
+    </row>
+    <row r="845" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E845" s="20"/>
+      <c r="H845" s="20"/>
+    </row>
+    <row r="846" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E846" s="20"/>
+      <c r="H846" s="20"/>
+    </row>
+    <row r="847" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E847" s="20"/>
+      <c r="H847" s="20"/>
+    </row>
+    <row r="848" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E848" s="20"/>
+      <c r="H848" s="20"/>
+    </row>
+    <row r="849" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E849" s="20"/>
+      <c r="H849" s="20"/>
+    </row>
+    <row r="850" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E850" s="20"/>
+      <c r="H850" s="20"/>
+    </row>
+    <row r="851" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E851" s="20"/>
+      <c r="H851" s="20"/>
+    </row>
+    <row r="852" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E852" s="20"/>
+      <c r="H852" s="20"/>
+    </row>
+    <row r="853" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E853" s="20"/>
+      <c r="H853" s="20"/>
+    </row>
+    <row r="854" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E854" s="20"/>
+      <c r="H854" s="20"/>
+    </row>
+    <row r="855" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E855" s="20"/>
+      <c r="H855" s="20"/>
+    </row>
+    <row r="856" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E856" s="20"/>
+      <c r="H856" s="20"/>
+    </row>
+    <row r="857" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E857" s="20"/>
+      <c r="H857" s="20"/>
+    </row>
+    <row r="858" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E858" s="20"/>
+      <c r="H858" s="20"/>
+    </row>
+    <row r="859" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E859" s="20"/>
+      <c r="H859" s="20"/>
+    </row>
+    <row r="860" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E860" s="20"/>
+      <c r="H860" s="20"/>
+    </row>
+    <row r="861" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E861" s="20"/>
+      <c r="H861" s="20"/>
+    </row>
+    <row r="862" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E862" s="20"/>
+      <c r="H862" s="20"/>
+    </row>
+    <row r="863" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E863" s="20"/>
+      <c r="H863" s="20"/>
+    </row>
+    <row r="864" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E864" s="20"/>
+      <c r="H864" s="20"/>
+    </row>
+    <row r="865" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E865" s="20"/>
+      <c r="H865" s="20"/>
+    </row>
+    <row r="866" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E866" s="20"/>
+      <c r="H866" s="20"/>
+    </row>
+    <row r="867" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E867" s="20"/>
+      <c r="H867" s="20"/>
+    </row>
+    <row r="868" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E868" s="20"/>
+      <c r="H868" s="20"/>
+    </row>
+    <row r="869" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E869" s="20"/>
+      <c r="H869" s="20"/>
+    </row>
+    <row r="870" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E870" s="20"/>
+      <c r="H870" s="20"/>
+    </row>
+    <row r="871" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E871" s="20"/>
+      <c r="H871" s="20"/>
+    </row>
+    <row r="872" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E872" s="20"/>
+      <c r="H872" s="20"/>
+    </row>
+    <row r="873" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E873" s="20"/>
+      <c r="H873" s="20"/>
+    </row>
+    <row r="874" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E874" s="20"/>
+      <c r="H874" s="20"/>
+    </row>
+    <row r="875" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E875" s="20"/>
+      <c r="H875" s="20"/>
+    </row>
+    <row r="876" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E876" s="20"/>
+      <c r="H876" s="20"/>
+    </row>
+    <row r="877" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E877" s="20"/>
+      <c r="H877" s="20"/>
+    </row>
+    <row r="878" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E878" s="20"/>
+      <c r="H878" s="20"/>
+    </row>
+    <row r="879" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E879" s="20"/>
+      <c r="H879" s="20"/>
+    </row>
+    <row r="880" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E880" s="20"/>
+      <c r="H880" s="20"/>
+    </row>
+    <row r="881" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E881" s="20"/>
+      <c r="H881" s="20"/>
+    </row>
+    <row r="882" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E882" s="20"/>
+      <c r="H882" s="20"/>
+    </row>
+    <row r="883" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E883" s="20"/>
+      <c r="H883" s="20"/>
+    </row>
+    <row r="884" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E884" s="20"/>
+      <c r="H884" s="20"/>
+    </row>
+    <row r="885" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E885" s="20"/>
+      <c r="H885" s="20"/>
+    </row>
+    <row r="886" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E886" s="20"/>
+      <c r="H886" s="20"/>
+    </row>
+    <row r="887" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E887" s="20"/>
+      <c r="H887" s="20"/>
+    </row>
+    <row r="888" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E888" s="20"/>
+      <c r="H888" s="20"/>
+    </row>
+    <row r="889" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E889" s="20"/>
+      <c r="H889" s="20"/>
+    </row>
+    <row r="890" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E890" s="20"/>
+      <c r="H890" s="20"/>
+    </row>
+    <row r="891" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E891" s="20"/>
+      <c r="H891" s="20"/>
+    </row>
+    <row r="892" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E892" s="20"/>
+      <c r="H892" s="20"/>
+    </row>
+    <row r="893" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E893" s="20"/>
+      <c r="H893" s="20"/>
+    </row>
+    <row r="894" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E894" s="20"/>
+      <c r="H894" s="20"/>
+    </row>
+    <row r="895" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E895" s="20"/>
+      <c r="H895" s="20"/>
+    </row>
+    <row r="896" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E896" s="20"/>
+      <c r="H896" s="20"/>
+    </row>
+    <row r="897" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E897" s="20"/>
+      <c r="H897" s="20"/>
+    </row>
+    <row r="898" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E898" s="20"/>
+      <c r="H898" s="20"/>
+    </row>
+    <row r="899" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E899" s="20"/>
+      <c r="H899" s="20"/>
+    </row>
+    <row r="900" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E900" s="20"/>
+      <c r="H900" s="20"/>
+    </row>
+    <row r="901" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E901" s="20"/>
+      <c r="H901" s="20"/>
+    </row>
+    <row r="902" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E902" s="20"/>
+      <c r="H902" s="20"/>
+    </row>
+    <row r="903" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E903" s="20"/>
+      <c r="H903" s="20"/>
+    </row>
+    <row r="904" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E904" s="20"/>
+      <c r="H904" s="20"/>
+    </row>
+    <row r="905" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E905" s="20"/>
+      <c r="H905" s="20"/>
+    </row>
+    <row r="906" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E906" s="20"/>
+      <c r="H906" s="20"/>
+    </row>
+    <row r="907" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E907" s="20"/>
+      <c r="H907" s="20"/>
+    </row>
+    <row r="908" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E908" s="20"/>
+      <c r="H908" s="20"/>
+    </row>
+    <row r="909" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E909" s="20"/>
+      <c r="H909" s="20"/>
+    </row>
+    <row r="910" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E910" s="20"/>
+      <c r="H910" s="20"/>
+    </row>
+    <row r="911" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E911" s="20"/>
+      <c r="H911" s="20"/>
+    </row>
+    <row r="912" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E912" s="20"/>
+      <c r="H912" s="20"/>
+    </row>
+    <row r="913" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E913" s="20"/>
+      <c r="H913" s="20"/>
+    </row>
+    <row r="914" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E914" s="20"/>
+      <c r="H914" s="20"/>
+    </row>
+    <row r="915" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E915" s="20"/>
+      <c r="H915" s="20"/>
+    </row>
+    <row r="916" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E916" s="20"/>
+      <c r="H916" s="20"/>
+    </row>
+    <row r="917" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E917" s="20"/>
+      <c r="H917" s="20"/>
+    </row>
+    <row r="918" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E918" s="20"/>
+      <c r="H918" s="20"/>
+    </row>
+    <row r="919" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E919" s="20"/>
+      <c r="H919" s="20"/>
+    </row>
+    <row r="920" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E920" s="20"/>
+      <c r="H920" s="20"/>
+    </row>
+    <row r="921" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E921" s="20"/>
+      <c r="H921" s="20"/>
+    </row>
+    <row r="922" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E922" s="20"/>
+      <c r="H922" s="20"/>
+    </row>
+    <row r="923" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E923" s="20"/>
+      <c r="H923" s="20"/>
+    </row>
+    <row r="924" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E924" s="20"/>
+      <c r="H924" s="20"/>
+    </row>
+    <row r="925" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E925" s="20"/>
+      <c r="H925" s="20"/>
+    </row>
+    <row r="926" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E926" s="20"/>
+      <c r="H926" s="20"/>
+    </row>
+    <row r="927" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E927" s="20"/>
+      <c r="H927" s="20"/>
+    </row>
+    <row r="928" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E928" s="20"/>
+      <c r="H928" s="20"/>
+    </row>
+    <row r="929" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E929" s="20"/>
+      <c r="H929" s="20"/>
+    </row>
+    <row r="930" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E930" s="20"/>
+      <c r="H930" s="20"/>
+    </row>
+    <row r="931" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E931" s="20"/>
+      <c r="H931" s="20"/>
+    </row>
+    <row r="932" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E932" s="20"/>
+      <c r="H932" s="20"/>
+    </row>
+    <row r="933" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E933" s="20"/>
+      <c r="H933" s="20"/>
+    </row>
+    <row r="934" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E934" s="20"/>
+      <c r="H934" s="20"/>
+    </row>
+    <row r="935" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E935" s="20"/>
+      <c r="H935" s="20"/>
+    </row>
+    <row r="936" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E936" s="20"/>
+      <c r="H936" s="20"/>
+    </row>
+    <row r="937" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E937" s="20"/>
+      <c r="H937" s="20"/>
+    </row>
+    <row r="938" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E938" s="20"/>
+      <c r="H938" s="20"/>
+    </row>
+    <row r="939" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E939" s="20"/>
+      <c r="H939" s="20"/>
+    </row>
+    <row r="940" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E940" s="20"/>
+      <c r="H940" s="20"/>
+    </row>
+    <row r="941" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E941" s="20"/>
+      <c r="H941" s="20"/>
+    </row>
+    <row r="942" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E942" s="20"/>
+      <c r="H942" s="20"/>
+    </row>
+    <row r="943" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E943" s="20"/>
+      <c r="H943" s="20"/>
+    </row>
+    <row r="944" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E944" s="20"/>
+      <c r="H944" s="20"/>
+    </row>
+    <row r="945" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E945" s="20"/>
+      <c r="H945" s="20"/>
+    </row>
+    <row r="946" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E946" s="20"/>
+      <c r="H946" s="20"/>
+    </row>
+    <row r="947" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E947" s="20"/>
+      <c r="H947" s="20"/>
+    </row>
+    <row r="948" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E948" s="20"/>
+      <c r="H948" s="20"/>
+    </row>
+    <row r="949" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E949" s="20"/>
+      <c r="H949" s="20"/>
+    </row>
+    <row r="950" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E950" s="20"/>
+      <c r="H950" s="20"/>
+    </row>
+    <row r="951" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E951" s="20"/>
+      <c r="H951" s="20"/>
+    </row>
+    <row r="952" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E952" s="20"/>
+      <c r="H952" s="20"/>
+    </row>
+    <row r="953" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E953" s="20"/>
+      <c r="H953" s="20"/>
+    </row>
+    <row r="954" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E954" s="20"/>
+      <c r="H954" s="20"/>
+    </row>
+    <row r="955" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E955" s="20"/>
+      <c r="H955" s="20"/>
+    </row>
+    <row r="956" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E956" s="20"/>
+      <c r="H956" s="20"/>
+    </row>
+    <row r="957" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E957" s="20"/>
+      <c r="H957" s="20"/>
+    </row>
+    <row r="958" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E958" s="20"/>
+      <c r="H958" s="20"/>
+    </row>
+    <row r="959" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E959" s="20"/>
+      <c r="H959" s="20"/>
+    </row>
+    <row r="960" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E960" s="20"/>
+      <c r="H960" s="20"/>
+    </row>
+    <row r="961" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E961" s="20"/>
+      <c r="H961" s="20"/>
+    </row>
+    <row r="962" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E962" s="20"/>
+      <c r="H962" s="20"/>
+    </row>
+    <row r="963" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E963" s="20"/>
+      <c r="H963" s="20"/>
+    </row>
+    <row r="964" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E964" s="20"/>
+      <c r="H964" s="20"/>
+    </row>
+    <row r="965" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E965" s="20"/>
+      <c r="H965" s="20"/>
+    </row>
+    <row r="966" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E966" s="20"/>
+      <c r="H966" s="20"/>
+    </row>
+    <row r="967" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E967" s="20"/>
+      <c r="H967" s="20"/>
+    </row>
+    <row r="968" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E968" s="20"/>
+      <c r="H968" s="20"/>
+    </row>
+    <row r="969" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E969" s="20"/>
+      <c r="H969" s="20"/>
+    </row>
+    <row r="970" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E970" s="20"/>
+      <c r="H970" s="20"/>
+    </row>
+    <row r="971" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E971" s="20"/>
+      <c r="H971" s="20"/>
+    </row>
+    <row r="972" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E972" s="20"/>
+      <c r="H972" s="20"/>
+    </row>
+    <row r="973" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E973" s="20"/>
+      <c r="H973" s="20"/>
+    </row>
+    <row r="974" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E974" s="20"/>
+      <c r="H974" s="20"/>
+    </row>
+    <row r="975" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E975" s="20"/>
+      <c r="H975" s="20"/>
+    </row>
+    <row r="976" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E976" s="20"/>
+      <c r="H976" s="20"/>
+    </row>
+    <row r="977" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E977" s="20"/>
+      <c r="H977" s="20"/>
+    </row>
+    <row r="978" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E978" s="20"/>
+      <c r="H978" s="20"/>
+    </row>
+    <row r="979" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E979" s="20"/>
+      <c r="H979" s="20"/>
+    </row>
+    <row r="980" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E980" s="20"/>
+      <c r="H980" s="20"/>
+    </row>
+    <row r="981" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E981" s="20"/>
+      <c r="H981" s="20"/>
+    </row>
+    <row r="982" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E982" s="20"/>
+      <c r="H982" s="20"/>
+    </row>
+    <row r="983" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E983" s="20"/>
+      <c r="H983" s="20"/>
+    </row>
+    <row r="984" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E984" s="20"/>
+      <c r="H984" s="20"/>
+    </row>
+    <row r="985" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E985" s="20"/>
+      <c r="H985" s="20"/>
+    </row>
+    <row r="986" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E986" s="20"/>
+      <c r="H986" s="20"/>
+    </row>
+    <row r="987" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E987" s="20"/>
+      <c r="H987" s="20"/>
+    </row>
+    <row r="988" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E988" s="20"/>
+      <c r="H988" s="20"/>
+    </row>
+    <row r="989" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E989" s="20"/>
+      <c r="H989" s="20"/>
+    </row>
+    <row r="990" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E990" s="20"/>
+      <c r="H990" s="20"/>
+    </row>
+    <row r="991" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E991" s="20"/>
+      <c r="H991" s="20"/>
+    </row>
+    <row r="992" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E992" s="20"/>
+      <c r="H992" s="20"/>
+    </row>
+    <row r="993" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E993" s="20"/>
+      <c r="H993" s="20"/>
+    </row>
+    <row r="994" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E994" s="20"/>
+      <c r="H994" s="20"/>
+    </row>
+    <row r="995" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E995" s="20"/>
+      <c r="H995" s="20"/>
+    </row>
+    <row r="996" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E996" s="20"/>
+      <c r="H996" s="20"/>
+    </row>
+    <row r="997" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E997" s="20"/>
+      <c r="H997" s="20"/>
+    </row>
+    <row r="998" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E998" s="20"/>
+      <c r="H998" s="20"/>
+    </row>
+    <row r="999" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E999" s="20"/>
+      <c r="H999" s="20"/>
+    </row>
+    <row r="1000" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1000" s="20"/>
+      <c r="H1000" s="20"/>
+    </row>
+    <row r="1001" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1001" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A205">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H14">
+    <sortCondition ref="H2:H14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13930,8 +18490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28190D69-257A-44A6-A66D-1CDB4A644200}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13940,361 +18500,401 @@
     <col min="2" max="2" width="50.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" s="9" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>1555</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>1555</v>
       </c>
-      <c r="C8" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="C10" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="C9" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="C11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="C10" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="C12" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>1558</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>1558</v>
       </c>
-      <c r="C11" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="C13" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="C12" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="C14" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="C13" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="C15" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>1561</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>1561</v>
       </c>
-      <c r="C14" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>1563</v>
-      </c>
       <c r="C16" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C17" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C18" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C19" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C20" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C21" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C22" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C23" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C24" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C25" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C26" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C27" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C28" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C29" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C30" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C31" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C32" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C33" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C34" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C35" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C36" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -14305,142 +18905,142 @@
         <v>732</v>
       </c>
       <c r="C37" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C38" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C39" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C40" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B41" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C41" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B42" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C42" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C43" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D43" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C44" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C45" t="s">
         <v>1635</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C46" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C47" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C48" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C49" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -14448,24 +19048,24 @@
         <v>1088</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C50" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D50" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C51" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -14476,21 +19076,21 @@
         <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C53" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D53" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -14501,90 +19101,90 @@
         <v>1096</v>
       </c>
       <c r="C54" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D54" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B55" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C55" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C56" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="D56" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>1276</v>
       </c>
       <c r="C57" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C58" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C59" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="B60" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C61" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -14595,43 +19195,43 @@
         <v>1237</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C64" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C65" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -14642,29 +19242,29 @@
         <v>435</v>
       </c>
       <c r="C66" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C67" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C68" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -14675,132 +19275,135 @@
         <v>390</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>1593</v>
+      <c r="A72" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1638</v>
+        <v>1636</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -14808,110 +19411,110 @@
         <v>1006</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C81" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C83" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C85" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B86" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C86" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C88" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -14922,7 +19525,7 @@
         <v>757</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -14933,18 +19536,18 @@
         <v>786</v>
       </c>
       <c r="C90" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -14955,112 +19558,112 @@
         <v>328</v>
       </c>
       <c r="C92" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C96" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C97" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C98" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C99" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="B100" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C100" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="B101" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C101" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -15071,24 +19674,21 @@
         <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="H102" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -15099,71 +19699,71 @@
         <v>529</v>
       </c>
       <c r="C104" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C105" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B107" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B108" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C108" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B109" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -15174,7 +19774,7 @@
         <v>282</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -15185,7 +19785,7 @@
         <v>278</v>
       </c>
       <c r="C111" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -15196,10 +19796,10 @@
         <v>650</v>
       </c>
       <c r="C112" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D112" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -15210,54 +19810,54 @@
         <v>1140</v>
       </c>
       <c r="C113" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D113" t="s">
         <v>1654</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B114" t="s">
         <v>1140</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B115" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C115" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -15268,7 +19868,7 @@
         <v>961</v>
       </c>
       <c r="C118" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -15279,7 +19879,7 @@
         <v>262</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -15290,29 +19890,29 @@
         <v>275</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -15323,7 +19923,7 @@
         <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -15334,7 +19934,7 @@
         <v>229</v>
       </c>
       <c r="C124" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -15345,54 +19945,54 @@
         <v>232</v>
       </c>
       <c r="C125" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C126" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C128" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B129" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C129" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -15403,7 +20003,7 @@
         <v>1450</v>
       </c>
       <c r="C130" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -15414,7 +20014,7 @@
         <v>1451</v>
       </c>
       <c r="C131" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -15425,7 +20025,7 @@
         <v>923</v>
       </c>
       <c r="C132" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -15436,101 +20036,101 @@
         <v>1003</v>
       </c>
       <c r="C133" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C134" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B136" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B139" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -15541,18 +20141,18 @@
         <v>1149</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C143" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -15589,8 +20189,8 @@
       <c r="A154"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D144">
-    <sortCondition ref="A2:A144"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G154">
+    <sortCondition ref="G2:G154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestDescriptionFieldValueAnalysis.xlsx
+++ b/TestDescriptionFieldValueAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\EarthCube\infomodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA01D14-5411-43E4-8E0F-495154FC32DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A697FB-C2A1-466F-BB98-B6094DB2E766}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2250" windowWidth="20325" windowHeight="10920" firstSheet="3" activeTab="6" xr2:uid="{C81E8E87-C803-4966-86CD-E799EC3ABB56}"/>
+    <workbookView xWindow="2460" yWindow="1215" windowWidth="19395" windowHeight="10920" activeTab="1" xr2:uid="{C81E8E87-C803-4966-86CD-E799EC3ABB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Union summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="time to live" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -11426,8 +11425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35767785-9FAC-4F36-A2CB-8D01D1802372}">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12463,6 +12462,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13788,7 +13788,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1487</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1489</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1490</v>
       </c>
@@ -18490,8 +18490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28190D69-257A-44A6-A66D-1CDB4A644200}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
